--- a/NorthernTrust/NT-KostenBepaling.xlsx
+++ b/NorthernTrust/NT-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsen/KeuzeWelkIndexFonds/OnderzoekPerFonds/NorthernTrust/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NorthernTrust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00EF959-7050-453A-97B8-65569FF767BE}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA42CE3-DD2C-4A18-926C-83A837792E29}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30465" yWindow="2325" windowWidth="17220" windowHeight="15555" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aannames" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gerben:</t>
         </r>
@@ -64,7 +64,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Uit statement of comprehensive incomeUit statement of comprehensive income</t>
@@ -79,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gerben:</t>
         </r>
@@ -88,7 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Uit 22. Portfolio Turnover Rate</t>
@@ -103,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gerben:</t>
         </r>
@@ -112,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Uit 22. Portfolio Turnover Rate</t>
@@ -127,7 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gerben:</t>
         </r>
@@ -136,7 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Uit statement of comprehensive income</t>
@@ -151,7 +151,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>https://www.assetmanagement.hsbc.nl/en/professional-clients/fund-centre/ie00b4x9l533</t>
         </r>
@@ -165,7 +165,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gerben van Loon:</t>
         </r>
@@ -174,7 +174,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Pagina 109 (2020)</t>
@@ -199,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gerben:</t>
         </r>
@@ -208,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 https://www.etf.hsbc.com/etf/attachments/uk/etf_december_annual_2019.pdf
@@ -234,7 +234,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gerben van Loon:</t>
         </r>
@@ -243,7 +243,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Pagina 109 (2020)</t>
@@ -295,7 +295,7 @@
     <author>Gerben</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{434CD842-3C43-4334-B2E1-FAF0941512B8}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{434CD842-3C43-4334-B2E1-FAF0941512B8}">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{EE1FF351-82F3-401D-BF5F-E210234F658F}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{EE1FF351-82F3-401D-BF5F-E210234F658F}">
       <text>
         <r>
           <rPr>
@@ -403,7 +403,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gerben:</t>
         </r>
@@ -412,7 +412,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 MSCI EOD. Suite: ESG Custom. Size: small cap</t>
@@ -686,9 +686,6 @@
     <t>De cash/tax drag valt hier minder op omdat het lek in europa kleiner is</t>
   </si>
   <si>
-    <t>De master fondsen lekker gewoon, de Nederlandse feeders maken dat goed</t>
-  </si>
-  <si>
     <t>In het 2018 jaarverslag staat dat TER 0,42% zou zijn geweest in 2018</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>Transactiekosten nogsteeds laag gezien turnover en in vergelijking met iShares/Vanguard? In 2020 wel logischer?</t>
+  </si>
+  <si>
+    <t>De master fondsen lekken gewoon, de Nederlandse feeders maken dat goed. Dit zijn fiscaal transparante fondsen dus. (CCF)</t>
   </si>
 </sst>
 </file>
@@ -796,7 +796,7 @@
     <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="171" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,19 +867,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1354,7 +1341,7 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
@@ -1394,7 +1381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1474,7 +1463,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1653,12 +1642,12 @@
       <c r="H12" s="5"/>
       <c r="I12" s="7"/>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4">
         <f>C12/C6</f>
@@ -1686,12 +1675,12 @@
         <v>8.0788643297724993E-4</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="17">
@@ -1713,12 +1702,12 @@
       <c r="H14" s="5"/>
       <c r="I14" s="7"/>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -1750,12 +1739,12 @@
       <c r="H16" s="5"/>
       <c r="I16" s="7"/>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="27">
         <f>0.07</f>
@@ -1785,7 +1774,7 @@
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="27">
         <v>0.1464</v>
@@ -1819,7 +1808,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="5"/>
@@ -1868,10 +1857,10 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1882,7 +1871,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="29">
         <f>G10+G9</f>
@@ -1904,11 +1893,11 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="7">
-        <f>('Tracking Difference'!K7/100)-C22</f>
-        <v>1.2859846139430687E-3</v>
+        <f>('Tracking Difference'!L7/100)-C22</f>
+        <v>1.3293179472764023E-3</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2228,12 +2217,12 @@
       <c r="H12" s="3"/>
       <c r="I12" s="7"/>
       <c r="K12" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2247,12 +2236,12 @@
       <c r="H13" s="3"/>
       <c r="I13" s="7"/>
       <c r="K13" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="27">
         <f>1.53</f>
@@ -2280,12 +2269,12 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="27">
         <v>0.1845</v>
@@ -2319,7 +2308,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="6"/>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2333,7 +2322,7 @@
     </row>
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="28">
         <f>G8+G7</f>
@@ -2347,10 +2336,10 @@
     </row>
     <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="29">
-        <f>('Tracking Difference'!K14/100)-C17</f>
+        <f>('Tracking Difference'!L14/100)-C17</f>
         <v>8.1077168342275378E-4</v>
       </c>
     </row>
@@ -2638,7 +2627,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="44">
         <f>0.01</f>
@@ -2655,7 +2644,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7">
         <v>6.9999999999999999E-4</v>
@@ -2679,15 +2668,15 @@
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="29">
         <f>G9+G10</f>
@@ -2970,7 +2959,7 @@
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="37">
         <f>0.03</f>
@@ -3020,7 +3009,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="4">
-        <f>'Tracking Difference'!K22/100</f>
+        <f>'Tracking Difference'!L22/100</f>
         <v>3.274999999999998E-3</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -3083,7 +3072,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="28">
         <f>C21-C17</f>
@@ -3403,7 +3392,7 @@
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="37">
         <f>0.03</f>
@@ -3453,7 +3442,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="4">
-        <f>'Tracking Difference'!K30/100</f>
+        <f>'Tracking Difference'!L30/100</f>
         <v>1.6499999999999959E-3</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -3516,7 +3505,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="28">
         <f>C21-C17</f>
@@ -3871,7 +3860,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="4">
         <v>1E-4</v>
@@ -3936,7 +3925,7 @@
         <v>2020</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="K19" s="6"/>
       <c r="M19" s="6"/>
@@ -3956,7 +3945,7 @@
         <v>78222</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -4052,7 +4041,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" s="4">
         <v>1E-4</v>
@@ -4245,7 +4234,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="4">
         <v>2.9999999999999997E-4</v>
@@ -4432,7 +4421,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
@@ -4462,16 +4451,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528616F-4365-4E03-AA99-F5C2282C78C2}">
-  <dimension ref="B2:O37"/>
+  <dimension ref="B2:P63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="18"/>
       <c r="C2" s="19">
         <v>2014</v>
@@ -4494,18 +4485,21 @@
       <c r="I2" s="19">
         <v>2020</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="19">
+        <v>2021</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>61</v>
       </c>
@@ -4526,14 +4520,17 @@
       <c r="I3" s="21">
         <v>8.2200000000000006</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="21">
+        <v>31.74</v>
+      </c>
       <c r="K3" s="18"/>
-      <c r="L3" s="21"/>
-      <c r="O3" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L3" s="18"/>
+      <c r="M3" s="21"/>
+      <c r="P3" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>43</v>
       </c>
@@ -4558,14 +4555,17 @@
       <c r="I4" s="21">
         <v>8.5299999999999994</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="21">
+        <v>31.99</v>
+      </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
-      <c r="O4" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M4" s="18"/>
+      <c r="P4" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>44</v>
       </c>
@@ -4586,11 +4586,14 @@
       <c r="I5" s="21">
         <v>7.98</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="21">
+        <v>31.42</v>
+      </c>
       <c r="K5" s="18"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L5" s="18"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>46</v>
       </c>
@@ -4616,14 +4619,18 @@
         <f>I3-I5</f>
         <v>0.24000000000000021</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="21">
+        <f>J3-J5</f>
+        <v>0.31999999999999673</v>
+      </c>
       <c r="K6" s="18"/>
-      <c r="L6" s="21">
-        <f>AVERAGE(E6:I6)</f>
-        <v>0.38599999999999984</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L6" s="18"/>
+      <c r="M6" s="21">
+        <f>AVERAGE(E6:J6)</f>
+        <v>0.37499999999999933</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>45</v>
       </c>
@@ -4649,14 +4656,18 @@
         <f>I4-I3</f>
         <v>0.30999999999999872</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="33">
-        <f>AVERAGE(E7:I7)</f>
-        <v>0.22399999999999984</v>
-      </c>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="21">
+        <f>J4-J3</f>
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="33">
+        <f>AVERAGE(E7:J7)</f>
+        <v>0.22833333333333319</v>
+      </c>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>60</v>
       </c>
@@ -4678,10 +4689,11 @@
         <v>10.26</v>
       </c>
       <c r="J10" s="24"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="24"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>43</v>
       </c>
@@ -4707,10 +4719,11 @@
         <v>10.72</v>
       </c>
       <c r="J11" s="24"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="24"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>44</v>
       </c>
@@ -4732,10 +4745,11 @@
         <v>10.37</v>
       </c>
       <c r="J12" s="24"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="24"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>46</v>
       </c>
@@ -4763,12 +4777,13 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="24">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24">
         <f>AVERAGE(E13:I13)</f>
         <v>1.599999999999966E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>45</v>
       </c>
@@ -4795,13 +4810,14 @@
         <v>0.46000000000000085</v>
       </c>
       <c r="J14" s="24"/>
-      <c r="K14" s="31">
+      <c r="K14" s="24"/>
+      <c r="L14" s="31">
         <f>AVERAGE(E14:I14)</f>
         <v>0.38600000000000029</v>
       </c>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="24"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>59</v>
       </c>
@@ -4818,7 +4834,7 @@
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>56</v>
       </c>
@@ -4835,7 +4851,7 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>57</v>
       </c>
@@ -4852,7 +4868,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
         <v>76</v>
       </c>
@@ -4872,12 +4888,12 @@
         <f t="shared" si="0"/>
         <v>0.77999999999999403</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f>AVERAGE(E20:H20)</f>
         <v>0.66999999999999826</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>46</v>
       </c>
@@ -4897,12 +4913,12 @@
         <f t="shared" si="1"/>
         <v>0.45999999999999375</v>
       </c>
-      <c r="L21" s="30">
+      <c r="M21" s="30">
         <f>AVERAGE(E21:H21)</f>
         <v>0.34249999999999847</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>45</v>
       </c>
@@ -4922,12 +4938,12 @@
         <f t="shared" si="2"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="K22" s="32">
+      <c r="L22" s="32">
         <f>AVERAGE(E22:H22)</f>
         <v>0.32749999999999979</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
         <v>62</v>
       </c>
@@ -4944,7 +4960,7 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>63</v>
       </c>
@@ -4961,7 +4977,7 @@
         <v>26.14</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>64</v>
       </c>
@@ -4978,7 +4994,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
         <v>76</v>
       </c>
@@ -4998,12 +5014,12 @@
         <f t="shared" si="3"/>
         <v>0.84999999999999787</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f>AVERAGE(E28:H28)</f>
         <v>0.6899999999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
         <v>46</v>
       </c>
@@ -5023,12 +5039,12 @@
         <f t="shared" si="4"/>
         <v>0.62000000000000099</v>
       </c>
-      <c r="L29" s="30">
+      <c r="M29" s="30">
         <f>AVERAGE(E29:H29)</f>
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
         <v>45</v>
       </c>
@@ -5048,14 +5064,14 @@
         <f t="shared" si="5"/>
         <v>0.22999999999999687</v>
       </c>
-      <c r="K30" s="32">
+      <c r="L30" s="32">
         <f>AVERAGE(E30:H30)</f>
         <v>0.16499999999999959</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33">
         <v>8.14</v>
@@ -5063,7 +5079,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34">
         <v>7.98</v>
@@ -5071,7 +5087,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>8.43</v>
@@ -5095,9 +5111,93 @@
         <v>0.28999999999999915</v>
       </c>
     </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="N62" s="30"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/NorthernTrust/NT-KostenBepaling.xlsx
+++ b/NorthernTrust/NT-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NorthernTrust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA42CE3-DD2C-4A18-926C-83A837792E29}"/>
+  <xr:revisionPtr revIDLastSave="641" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE636135-679C-43EA-9F20-4F41E36EB0C3}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="2325" windowWidth="17220" windowHeight="15555" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="23070" yWindow="2805" windowWidth="21915" windowHeight="16035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aannames" sheetId="4" r:id="rId1"/>
@@ -34,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -395,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{44AC9BF2-D406-4BD8-8416-B5B9C5DDFA7D}">
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{44AC9BF2-D406-4BD8-8416-B5B9C5DDFA7D}">
       <text>
         <r>
           <rPr>
@@ -424,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
   <si>
     <t>Transaction costs and interest expenses are excluded from the calculation.</t>
   </si>
@@ -780,6 +781,21 @@
   </si>
   <si>
     <t>De master fondsen lekken gewoon, de Nederlandse feeders maken dat goed. Dit zijn fiscaal transparante fondsen dus. (CCF)</t>
+  </si>
+  <si>
+    <t>Kosten gemiddeld verleden 0,15%</t>
+  </si>
+  <si>
+    <t>TD ruimte 0,15% vast</t>
+  </si>
+  <si>
+    <t>TD ruimte 0,15% vast + master</t>
+  </si>
+  <si>
+    <t>ok… zal het dan zo zitten?</t>
+  </si>
+  <si>
+    <t>2018-2021</t>
   </si>
 </sst>
 </file>
@@ -1379,23 +1395,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K36"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="122.140625" customWidth="1"/>
+    <col min="3" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="122.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
@@ -1406,19 +1422,20 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="10"/>
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2016</v>
       </c>
@@ -1434,15 +1451,18 @@
       <c r="G4" s="1">
         <v>2020</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1461,12 +1481,15 @@
       <c r="G5" s="13">
         <v>1057177</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="K5" t="s">
+      <c r="H5" s="13">
+        <v>526476</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="L5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1485,9 +1508,12 @@
       <c r="G6" s="13">
         <v>2699037265</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="13">
+        <v>4671196104</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1496,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:G7" si="0">D5/D6</f>
+        <f t="shared" ref="D7:H7" si="0">D5/D6</f>
         <v>0</v>
       </c>
       <c r="E7" s="5">
@@ -1511,14 +1537,18 @@
         <f t="shared" si="0"/>
         <v>3.9168670018344484E-4</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="4"/>
-      <c r="K7" t="s">
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1270689311227427E-4</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1542,10 +1572,14 @@
         <f>'Northern Trust Master fondsen'!H6</f>
         <v>6.2120793946397634E-5</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="5">
+        <f>'Northern Trust Master fondsen'!I6</f>
+        <v>1.7136259660773064E-5</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1588,7 @@
         <v>1.3528648432442348E-4</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:G9" si="1">SUM(D7:D8)</f>
+        <f t="shared" ref="D9:H9" si="1">SUM(D7:D8)</f>
         <v>4.4782844092559127E-5</v>
       </c>
       <c r="E9" s="5">
@@ -1569,16 +1603,20 @@
         <f t="shared" si="1"/>
         <v>4.5380749412984249E-4</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6">
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2984315277304734E-4</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6">
         <f>AVERAGE(C9:H9)</f>
-        <v>1.4612895307967983E-4</v>
-      </c>
-      <c r="K9" t="s">
+        <v>1.434146530285744E-4</v>
+      </c>
+      <c r="L9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
@@ -1597,26 +1635,30 @@
       <c r="G10" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7">
-        <f>AVERAGE(C10:G10)</f>
-        <v>9.6000000000000013E-4</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7">
+        <f>AVERAGE(C10:H10)</f>
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="L10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
@@ -1639,46 +1681,54 @@
         <f>3763438-G5</f>
         <v>2706261</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="K12" t="s">
+      <c r="H12" s="17">
+        <f>4740622-H5</f>
+        <v>4214146</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="7"/>
+      <c r="L12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="4">
-        <f>C12/C6</f>
+        <f t="shared" ref="C13:H13" si="2">C12/C6</f>
         <v>2.6266407285764366E-4</v>
       </c>
       <c r="D13" s="4">
-        <f>D12/D6</f>
+        <f t="shared" si="2"/>
         <v>2.8077493451108816E-4</v>
       </c>
       <c r="E13" s="4">
-        <f>E12/E6</f>
+        <f t="shared" si="2"/>
         <v>1.2805674672750266E-3</v>
       </c>
       <c r="F13" s="4">
-        <f>F12/F6</f>
+        <f t="shared" si="2"/>
         <v>1.212749278510918E-3</v>
       </c>
       <c r="G13" s="4">
-        <f>G12/G6</f>
+        <f t="shared" si="2"/>
         <v>1.0026764117315734E-3</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7">
-        <f>AVERAGE(C13:G13)</f>
-        <v>8.0788643297724993E-4</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>9.0215565910225376E-4</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7">
+        <f>AVERAGE(C13:H13)</f>
+        <v>8.2359797066475053E-4</v>
+      </c>
+      <c r="L13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>102</v>
       </c>
@@ -1688,24 +1738,28 @@
         <v>323257</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" ref="E14:G14" si="2">E12+E5</f>
+        <f t="shared" ref="E14:H14" si="3">E12+E5</f>
         <v>2280765</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3265001</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3763438</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
-      <c r="K14" t="s">
+      <c r="H14" s="17">
+        <f t="shared" si="3"/>
+        <v>4740622</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="L14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>104</v>
       </c>
@@ -1715,34 +1769,39 @@
         <v>2.8077493451108816E-4</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ref="E15:G15" si="3">E14/E6</f>
+        <f t="shared" ref="E15:H15" si="4">E14/E6</f>
         <v>1.2805674672750266E-3</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2210870754241522E-3</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3943631119150183E-3</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0148625522145281E-3</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7"/>
-      <c r="K16" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7"/>
+      <c r="L16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>91</v>
       </c>
@@ -1765,14 +1824,17 @@
       <c r="G17" s="27">
         <v>0.19</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="44">
-        <f>AVERAGE(E17:G17)</f>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="44">
+        <f>AVERAGE(E17:H17)</f>
+        <v>0.155</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>96</v>
       </c>
@@ -1791,22 +1853,26 @@
       <c r="G18" s="27">
         <v>3.32E-2</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="44">
-        <f>AVERAGE(E18:G18)</f>
-        <v>7.5700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="27">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="44">
+        <f>AVERAGE(E18:H18)</f>
+        <v>7.6575000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>110</v>
       </c>
@@ -1818,10 +1884,16 @@
       <c r="G20" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6">
+        <f>AVERAGE(F20:H20)</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -1829,138 +1901,211 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="7">
-        <f>I9+I13</f>
-        <v>9.5401538605692981E-4</v>
+        <f>J9+J13</f>
+        <v>9.6701262369332491E-4</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="28"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="7">
+        <f>J9+0.15%</f>
+        <v>1.6434146530285745E-3</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="29">
-        <f>G10+G9</f>
-        <v>1.9538074941298426E-3</v>
-      </c>
-      <c r="D25" s="4">
-        <f>C25+G20</f>
-        <v>2.2538074941298425E-3</v>
-      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="7">
-        <f>('Tracking Difference'!L7/100)-C22</f>
-        <v>1.3293179472764023E-3</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="29">
+        <f>H10+H9</f>
+        <v>1.6298431527730474E-3</v>
+      </c>
+      <c r="D27" s="4">
+        <f>C27+H20</f>
+        <v>1.9298431527730473E-3</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="7">
+        <f>('Tracking Difference'!L7/100)-C22</f>
+        <v>1.3163207096400071E-3</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="7">
+        <f>('Tracking Difference'!L7/100)-C23</f>
+        <v>6.3991868030475758E-4</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="7">
+        <f>C30-H20</f>
+        <v>3.399186803047576E-4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="7">
+        <f>AVERAGE(E10:H10)+AVERAGE(E9:H9)+AVERAGE(E20:H20)</f>
+        <v>1.8951046474386158E-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="27"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE('Tracking Difference'!G7:J7)/100</f>
+        <v>2.4500000000000012E-3</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="46">
+        <f>C34-C33</f>
+        <v>5.5489535256138538E-4</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
       <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1971,21 +2116,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5B4C98-CE28-4015-A5EF-F840D4E9DB1C}">
-  <dimension ref="B2:K37"/>
+  <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="91.85546875" customWidth="1"/>
+    <col min="3" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="91.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1996,19 +2143,20 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="10"/>
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>2016</v>
@@ -2025,15 +2173,18 @@
       <c r="G4" s="1">
         <v>2020</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2052,9 +2203,12 @@
       <c r="G5" s="3">
         <v>1289282</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <v>1944889</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2073,12 +2227,15 @@
       <c r="G6" s="3">
         <v>2450916010</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="K6" t="s">
+      <c r="H6" s="3">
+        <v>3883272002</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="L6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2087,7 +2244,7 @@
         <v>6.6379643974936542E-4</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:G7" si="0">D5/D6</f>
+        <f t="shared" ref="D7:H7" si="0">D5/D6</f>
         <v>9.8516679690304203E-4</v>
       </c>
       <c r="E7" s="4">
@@ -2102,14 +2259,18 @@
         <f t="shared" si="0"/>
         <v>5.26040873999595E-4</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7">
-        <f>AVERAGE(C7:G7)</f>
-        <v>5.8214444137353271E-4</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.008376953760449E-4</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7">
+        <f>AVERAGE(C7:H7)</f>
+        <v>5.6859331704061809E-4</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
@@ -2128,26 +2289,30 @@
       <c r="G8" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7">
-        <f>AVERAGE(C8:G8)</f>
-        <v>2.4600000000000004E-3</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H8" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="7">
+        <f>AVERAGE(C8:H8)</f>
+        <v>2.4666666666666669E-3</v>
+      </c>
+      <c r="L8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>67</v>
       </c>
@@ -2171,13 +2336,17 @@
         <f>6441892-G5</f>
         <v>5152610</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="7"/>
-      <c r="K10" t="s">
+      <c r="H10" s="3">
+        <f>9439821-H5</f>
+        <v>7494932</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="L10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>72</v>
       </c>
@@ -2190,7 +2359,7 @@
         <v>2.0150290970824001E-3</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:G11" si="1">E10/E6</f>
+        <f t="shared" ref="E11:H11" si="1">E10/E6</f>
         <v>2.8891141923255395E-3</v>
       </c>
       <c r="F11" s="4">
@@ -2201,26 +2370,31 @@
         <f t="shared" si="1"/>
         <v>2.1023201035762951E-3</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="7">
-        <f>AVERAGE(C11:G11)</f>
-        <v>2.467083875203716E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9300558900174616E-3</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="7">
+        <f>AVERAGE(C11:H11)</f>
+        <v>2.3775792110060068E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="7"/>
-      <c r="K12" s="43" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="7"/>
+      <c r="L12" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
@@ -2233,13 +2407,14 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="7"/>
-      <c r="K13" s="43" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7"/>
+      <c r="L13" s="43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>91</v>
       </c>
@@ -2262,17 +2437,20 @@
       <c r="G14" s="27">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="44">
-        <f>AVERAGE(C14:F14)</f>
-        <v>0.80249999999999999</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="43" t="s">
+      <c r="H14" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="44">
+        <f>AVERAGE(C14:H14)</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>98</v>
       </c>
@@ -2291,128 +2469,138 @@
       <c r="G15" s="27">
         <v>1.7081</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="44">
-        <f>AVERAGE(C15:G15)</f>
-        <v>0.44444</v>
-      </c>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="27">
+        <v>0.2447</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="44">
+        <f>AVERAGE(C15:H15)</f>
+        <v>0.41114999999999996</v>
+      </c>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="6"/>
-      <c r="K16" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="6"/>
+      <c r="L16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="29">
-        <f>I7+I11</f>
-        <v>3.049228316577249E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>J7+J11</f>
+        <v>2.946172528046625E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="28">
-        <f>G8+G7</f>
-        <v>3.0260408739995952E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>H8+H7</f>
+        <v>3.0008376953760451E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="29"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="29">
         <f>('Tracking Difference'!L14/100)-C17</f>
-        <v>8.1077168342275378E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.0382747195337761E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="28"/>
       <c r="D22" s="45"/>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="28"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="28"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="28"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="38"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="27"/>
     </row>
@@ -2425,21 +2613,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123B064-D487-424B-955E-970CD2CDF897}">
-  <dimension ref="B2:K37"/>
+  <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="91.85546875" customWidth="1"/>
+    <col min="3" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="91.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
@@ -2450,16 +2640,17 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="10"/>
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2016</v>
       </c>
@@ -2475,12 +2666,15 @@
       <c r="G4" s="1">
         <v>2020</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2493,9 +2687,12 @@
       <c r="G5" s="3">
         <v>139778</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <v>203240</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2508,9 +2705,12 @@
       <c r="G6" s="3">
         <v>209928765</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>536989210</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2524,11 +2724,15 @@
         <f>G5/G6</f>
         <v>6.6583538468394262E-4</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5">
+        <f>H5/H6</f>
+        <v>3.7848060299014202E-4</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2542,10 +2746,14 @@
         <f>'Northern Trust Master fondsen'!H22</f>
         <v>3.2934847239067549E-4</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <f>'Northern Trust Master fondsen'!I22</f>
+        <v>1.5612069852104837E-4</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2559,13 +2767,17 @@
         <f>SUM(G7:G8)</f>
         <v>9.9518385707461805E-4</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="29">
-        <f>G9</f>
-        <v>9.9518385707461805E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="5">
+        <f>SUM(H7:H8)</f>
+        <v>5.3460130151119036E-4</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="29">
+        <f>AVERAGE(G9:H9)</f>
+        <v>7.6489257929290421E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
@@ -2577,20 +2789,24 @@
       <c r="G10" s="7">
         <v>2.3E-3</v>
       </c>
-      <c r="I10" s="7">
-        <f>G10</f>
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="7">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J10" s="29">
+        <f>AVERAGE(G10:H10)</f>
+        <v>2.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
@@ -2604,9 +2820,13 @@
         <f>404158-G5</f>
         <v>264380</v>
       </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <f>1012274-H5</f>
+        <v>809034</v>
+      </c>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>72</v>
       </c>
@@ -2620,12 +2840,19 @@
         <f>G12/G6</f>
         <v>1.2593795804972225E-3</v>
       </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <f>H12/H6</f>
+        <v>1.5066112780925337E-3</v>
+      </c>
+      <c r="J13" s="29">
+        <f>AVERAGE(G13:H13)</f>
+        <v>1.382995429294878E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>91</v>
       </c>
@@ -2636,13 +2863,17 @@
       <c r="G15" s="44">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>111</v>
       </c>
@@ -2652,20 +2883,23 @@
       <c r="G17" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="29">
-        <f>I9+I10</f>
-        <v>3.295183857074618E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <f>J9+J10</f>
+        <v>3.0148925792929044E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="4" t="s">
         <v>107</v>
@@ -2674,17 +2908,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="29">
-        <f>G9+G10</f>
-        <v>3.295183857074618E-3</v>
+        <f>H9+H10</f>
+        <v>2.7346013015111907E-3</v>
       </c>
       <c r="D22" s="4">
-        <f>C22+G17</f>
-        <v>3.6951838570746182E-3</v>
+        <f>C22+H17</f>
+        <v>3.0346013015111906E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="29">
+        <f>('Tracking Difference'!L30/100)-C19</f>
+        <v>-1.3648925792929085E-3</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
@@ -2824,19 +3067,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="5">
-        <f>'Northern Trust Master fondsen'!D48</f>
+        <f>'Northern Trust Master fondsen'!D54</f>
         <v>1.4240200701548999E-4</v>
       </c>
       <c r="D8" s="5">
-        <f>'Northern Trust Master fondsen'!E48</f>
+        <f>'Northern Trust Master fondsen'!E54</f>
         <v>1.8879294676940906E-4</v>
       </c>
       <c r="E8" s="5">
-        <f>'Northern Trust Master fondsen'!F48</f>
+        <f>'Northern Trust Master fondsen'!F54</f>
         <v>5.4497376783190948E-5</v>
       </c>
       <c r="F8" s="5">
-        <f>'Northern Trust Master fondsen'!G48</f>
+        <f>'Northern Trust Master fondsen'!G54</f>
         <v>4.2326604352244424E-5</v>
       </c>
       <c r="G8" s="5"/>
@@ -3256,19 +3499,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="4">
-        <f>'Northern Trust Master fondsen'!D35</f>
+        <f>'Northern Trust Master fondsen'!D41</f>
         <v>4.0880326741039955E-4</v>
       </c>
       <c r="D8" s="4">
-        <f>'Northern Trust Master fondsen'!E35</f>
+        <f>'Northern Trust Master fondsen'!E41</f>
         <v>3.2333263888189987E-4</v>
       </c>
       <c r="E8" s="4">
-        <f>'Northern Trust Master fondsen'!F35</f>
+        <f>'Northern Trust Master fondsen'!F41</f>
         <v>1.4029800153593462E-4</v>
       </c>
       <c r="F8" s="4">
-        <f>'Northern Trust Master fondsen'!G35</f>
+        <f>'Northern Trust Master fondsen'!G41</f>
         <v>1.0903789686451616E-4</v>
       </c>
       <c r="G8" s="5"/>
@@ -3607,19 +3850,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C245834D-4F6D-4A3C-9D7B-51919C891EFD}">
-  <dimension ref="B2:M58"/>
+  <dimension ref="B2:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="8" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
@@ -3629,11 +3874,12 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="12"/>
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>2015</v>
       </c>
@@ -3652,8 +3898,11 @@
       <c r="H3" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3673,11 +3922,14 @@
       <c r="H4" s="13">
         <v>477059</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="13">
+        <v>168260</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3700,11 +3952,14 @@
       <c r="H5" s="13">
         <v>8369579285</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="13">
+        <v>11268311752</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3729,20 +3984,24 @@
         <f>H4/AVERAGE(G5:H5)</f>
         <v>6.2120793946397634E-5</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="5">
+        <f>I4/AVERAGE(H5:I5)</f>
+        <v>1.7136259660773064E-5</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
@@ -3755,29 +4014,29 @@
         <f>3430662/AVERAGE(F5:G5)</f>
         <v>6.0576210029011761E-4</v>
       </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
@@ -3796,9 +4055,9 @@
       <c r="G11" s="38">
         <v>140316975</v>
       </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
@@ -3817,11 +4076,11 @@
       <c r="G12" s="38">
         <v>14258476</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>79</v>
       </c>
@@ -3845,11 +4104,11 @@
         <f>G12/G11</f>
         <v>0.10161618720757057</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -3857,8 +4116,9 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -3877,21 +4137,21 @@
       <c r="G15" s="4">
         <v>1E-4</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J16" s="9" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
@@ -3901,11 +4161,12 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="J18" s="1" t="s">
+      <c r="I18" s="12"/>
+      <c r="K18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>2015</v>
       </c>
@@ -3924,13 +4185,16 @@
       <c r="H19" s="1">
         <v>2020</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K19" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3944,12 +4208,15 @@
       <c r="H20" s="34">
         <v>78222</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" s="34">
+        <v>88354</v>
+      </c>
+      <c r="K20" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
@@ -3965,9 +4232,12 @@
       <c r="H21" s="34">
         <v>333543399</v>
       </c>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="34">
+        <v>798324455</v>
+      </c>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3983,8 +4253,12 @@
         <f>H20/AVERAGE(G21:H21)</f>
         <v>3.2934847239067549E-4</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I22" s="36">
+        <f>I20/AVERAGE(H21:I21)</f>
+        <v>1.5612069852104837E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3992,7 +4266,7 @@
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
@@ -4004,7 +4278,7 @@
         <v>1485197</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -4015,9 +4289,9 @@
       <c r="G25" s="39">
         <v>195155</v>
       </c>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>79</v>
       </c>
@@ -4029,9 +4303,9 @@
         <f>G25/G24</f>
         <v>0.13140007689215638</v>
       </c>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4039,7 +4313,7 @@
       <c r="F27" s="35"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
@@ -4047,400 +4321,428 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C38" s="1">
         <v>2015</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D38" s="1">
         <v>2016</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E38" s="1">
         <v>2017</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F38" s="1">
         <v>2018</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G38" s="1">
         <v>2019</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H38" s="1">
         <v>2020</v>
       </c>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="I38" s="1"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34">
+      <c r="C39" s="34"/>
+      <c r="D39" s="34">
         <v>45547</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E39" s="34">
         <v>119882</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F39" s="34">
         <v>97972</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G39" s="34">
         <v>119750</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="K39" s="9"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C40" s="34">
         <v>25275750</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D40" s="34">
         <v>197555150</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E40" s="34">
         <v>543984587</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F40" s="34">
         <v>852642577</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G40" s="34">
         <v>1343841461</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5">
-        <f t="shared" ref="D35" si="2">D33/AVERAGE(C34:D34)</f>
+      <c r="C41" s="8"/>
+      <c r="D41" s="5">
+        <f t="shared" ref="D41" si="2">D39/AVERAGE(C40:D40)</f>
         <v>4.0880326741039955E-4</v>
       </c>
-      <c r="E35" s="5">
-        <f t="shared" ref="E35" si="3">E33/AVERAGE(D34:E34)</f>
+      <c r="E41" s="5">
+        <f t="shared" ref="E41" si="3">E39/AVERAGE(D40:E40)</f>
         <v>3.2333263888189987E-4</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" ref="F35" si="4">F33/AVERAGE(E34:F34)</f>
+      <c r="F41" s="5">
+        <f t="shared" ref="F41" si="4">F39/AVERAGE(E40:F40)</f>
         <v>1.4029800153593462E-4</v>
       </c>
-      <c r="G35" s="5">
-        <f>G33/AVERAGE(F34:G34)</f>
+      <c r="G41" s="5">
+        <f>G39/AVERAGE(F40:G40)</f>
         <v>1.0903789686451616E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C43" s="38">
         <v>4178257</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D43" s="38">
         <v>4523050</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E43" s="38">
         <v>11531574</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F43" s="38">
         <v>25060715</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G43" s="38">
         <v>36414801</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C44" s="38">
         <v>460172</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D44" s="38">
         <v>328239</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E44" s="38">
         <v>769172</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F44" s="38">
         <v>1404308</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G44" s="38">
         <v>1974860</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="25">
-        <f t="shared" ref="C39:F39" si="5">C38/C37</f>
+      <c r="C45" s="25">
+        <f t="shared" ref="C45:F45" si="5">C44/C43</f>
         <v>0.11013491989602363</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D45" s="25">
         <f t="shared" si="5"/>
         <v>7.2570278904721369E-2</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E45" s="25">
         <f t="shared" si="5"/>
         <v>6.6701388726291833E-2</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F45" s="25">
         <f t="shared" si="5"/>
         <v>5.603623041082427E-2</v>
       </c>
-      <c r="G39" s="25">
-        <f>G38/G37</f>
+      <c r="G45" s="25">
+        <f>G44/G43</f>
         <v>5.4232343601163711E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C47" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D47" s="4">
         <v>1E-4</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E47" s="4">
         <v>0</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F47" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G47" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C51" s="1">
         <v>2015</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D51" s="1">
         <v>2016</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E51" s="1">
         <v>2017</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F51" s="1">
         <v>2018</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G51" s="1">
         <v>2019</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H51" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34">
+      <c r="C52" s="34"/>
+      <c r="D52" s="34">
         <v>10837</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E52" s="34">
         <v>77254</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F52" s="34">
         <v>45684</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G52" s="34">
         <v>55573</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C53" s="34">
         <v>82931512</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D53" s="34">
         <v>69271399</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E53" s="34">
         <v>749127819</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F53" s="34">
         <v>927429942</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G53" s="34">
         <v>1698483516</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="5">
-        <f t="shared" ref="D48" si="6">D46/AVERAGE(C47:D47)</f>
+      <c r="C54" s="8"/>
+      <c r="D54" s="5">
+        <f t="shared" ref="D54" si="6">D52/AVERAGE(C53:D53)</f>
         <v>1.4240200701548999E-4</v>
       </c>
-      <c r="E48" s="5">
-        <f t="shared" ref="E48" si="7">E46/AVERAGE(D47:E47)</f>
+      <c r="E54" s="5">
+        <f t="shared" ref="E54" si="7">E52/AVERAGE(D53:E53)</f>
         <v>1.8879294676940906E-4</v>
       </c>
-      <c r="F48" s="5">
-        <f t="shared" ref="F48" si="8">F46/AVERAGE(E47:F47)</f>
+      <c r="F54" s="5">
+        <f t="shared" ref="F54" si="8">F52/AVERAGE(E53:F53)</f>
         <v>5.4497376783190948E-5</v>
       </c>
-      <c r="G48" s="5">
-        <f>G46/AVERAGE(F47:G47)</f>
+      <c r="G54" s="5">
+        <f>G52/AVERAGE(F53:G53)</f>
         <v>4.2326604352244424E-5</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C56" s="38">
         <v>13588</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D56" s="38">
         <v>812657</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E56" s="38">
         <v>9763753</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F56" s="38">
         <v>18127165</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G56" s="38">
         <v>28988001</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C57" s="38">
         <v>1921</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D57" s="38">
         <v>121637</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E57" s="38">
         <v>1181144</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F57" s="38">
         <v>2300880</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G57" s="38">
         <v>3641394</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="25">
-        <f t="shared" ref="C52:F52" si="9">C51/C50</f>
+      <c r="C58" s="25">
+        <f t="shared" ref="C58:F58" si="9">C57/C56</f>
         <v>0.14137474241978215</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D58" s="25">
         <f t="shared" si="9"/>
         <v>0.1496781544981462</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E58" s="25">
         <f t="shared" si="9"/>
         <v>0.12097233512564277</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F58" s="25">
         <f t="shared" si="9"/>
         <v>0.12692994188556236</v>
       </c>
-      <c r="G52" s="25">
-        <f>G51/G50</f>
+      <c r="G58" s="25">
+        <f>G57/G56</f>
         <v>0.1256172855796438</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C60" s="4">
         <v>0</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D60" s="4">
         <v>0</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E60" s="4">
         <v>0</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F60" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G60" s="4">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E58" s="4"/>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E64" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4453,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528616F-4365-4E03-AA99-F5C2282C78C2}">
   <dimension ref="B2:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="G7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4600,27 +4902,27 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21">
-        <f>E3-E5</f>
+        <f t="shared" ref="E6:J6" si="0">E3-E5</f>
         <v>0.48000000000000043</v>
       </c>
       <c r="F6" s="21">
-        <f>F3-F5</f>
+        <f t="shared" si="0"/>
         <v>0.37000000000000011</v>
       </c>
       <c r="G6" s="21">
-        <f>G3-G5</f>
+        <f t="shared" si="0"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="H6" s="21">
-        <f>H3-H5</f>
+        <f t="shared" si="0"/>
         <v>0.48999999999999844</v>
       </c>
       <c r="I6" s="21">
-        <f>I3-I5</f>
+        <f t="shared" si="0"/>
         <v>0.24000000000000021</v>
       </c>
       <c r="J6" s="21">
-        <f>J3-J5</f>
+        <f t="shared" si="0"/>
         <v>0.31999999999999673</v>
       </c>
       <c r="K6" s="18"/>
@@ -4637,27 +4939,27 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21">
-        <f>E4-E3</f>
+        <f t="shared" ref="E7:J7" si="1">E4-E3</f>
         <v>0.16999999999999993</v>
       </c>
       <c r="F7" s="21">
-        <f>F4-F3</f>
+        <f t="shared" si="1"/>
         <v>0.21999999999999886</v>
       </c>
       <c r="G7" s="21">
-        <f>G4-G3</f>
+        <f t="shared" si="1"/>
         <v>0.17999999999999972</v>
       </c>
       <c r="H7" s="21">
-        <f>H4-H3</f>
+        <f t="shared" si="1"/>
         <v>0.24000000000000199</v>
       </c>
       <c r="I7" s="21">
-        <f>I4-I3</f>
+        <f t="shared" si="1"/>
         <v>0.30999999999999872</v>
       </c>
       <c r="J7" s="21">
-        <f>J4-J3</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="K7" s="18"/>
@@ -4688,7 +4990,9 @@
       <c r="I10" s="24">
         <v>10.26</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="24">
+        <v>3.81</v>
+      </c>
       <c r="K10" s="24"/>
       <c r="L10" s="22"/>
       <c r="M10" s="24"/>
@@ -4718,7 +5022,9 @@
       <c r="I11" s="24">
         <v>10.72</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="24">
+        <v>4.07</v>
+      </c>
       <c r="K11" s="24"/>
       <c r="L11" s="22"/>
       <c r="M11" s="24"/>
@@ -4744,7 +5050,9 @@
       <c r="I12" s="24">
         <v>10.37</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="24">
+        <v>3.74</v>
+      </c>
       <c r="K12" s="24"/>
       <c r="L12" s="22"/>
       <c r="M12" s="24"/>
@@ -4756,31 +5064,34 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24">
-        <f>E10-E12</f>
+        <f t="shared" ref="E13:J13" si="2">E10-E12</f>
         <v>-0.20000000000000107</v>
       </c>
       <c r="F13" s="24">
-        <f>F10-F12</f>
+        <f t="shared" si="2"/>
         <v>0.32999999999999829</v>
       </c>
       <c r="G13" s="24">
-        <f>G10-G12</f>
+        <f t="shared" si="2"/>
         <v>-0.15000000000000036</v>
       </c>
       <c r="H13" s="24">
-        <f>H10-H12</f>
+        <f t="shared" si="2"/>
         <v>0.21000000000000085</v>
       </c>
       <c r="I13" s="24">
-        <f>I10-I12</f>
+        <f t="shared" si="2"/>
         <v>-0.10999999999999943</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="24">
+        <f t="shared" si="2"/>
+        <v>6.999999999999984E-2</v>
+      </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24">
-        <f>AVERAGE(E13:I13)</f>
-        <v>1.599999999999966E-2</v>
+        <f>AVERAGE(E13:J13)</f>
+        <v>2.4999999999999689E-2</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -4790,30 +5101,33 @@
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24">
-        <f>E11-E10</f>
+        <f t="shared" ref="E14:J14" si="3">E11-E10</f>
         <v>0.63000000000000078</v>
       </c>
       <c r="F14" s="24">
-        <f>F11-F10</f>
+        <f t="shared" si="3"/>
         <v>8.0000000000001847E-2</v>
       </c>
       <c r="G14" s="24">
-        <f>G11-G10</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="H14" s="24">
-        <f>H11-H10</f>
+        <f t="shared" si="3"/>
         <v>0.25999999999999801</v>
       </c>
       <c r="I14" s="24">
-        <f>I11-I10</f>
+        <f t="shared" si="3"/>
         <v>0.46000000000000085</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="24">
+        <f t="shared" si="3"/>
+        <v>0.26000000000000023</v>
+      </c>
       <c r="K14" s="24"/>
       <c r="L14" s="31">
-        <f>AVERAGE(E14:I14)</f>
-        <v>0.38600000000000029</v>
+        <f>AVERAGE(E14:J14)</f>
+        <v>0.36500000000000027</v>
       </c>
       <c r="M14" s="24"/>
     </row>
@@ -4877,15 +5191,15 @@
         <v>0.71999999999999886</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:H20" si="0">F19-F18</f>
+        <f t="shared" ref="F20:H20" si="4">F19-F18</f>
         <v>0.62000000000000011</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.77999999999999403</v>
       </c>
       <c r="K20">
@@ -4902,15 +5216,15 @@
         <v>0.27999999999999936</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:H21" si="1">F17-F18</f>
+        <f t="shared" ref="F21:H21" si="5">F17-F18</f>
         <v>0.30000000000000071</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.45999999999999375</v>
       </c>
       <c r="M21" s="30">
@@ -4927,15 +5241,15 @@
         <v>0.4399999999999995</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:H22" si="2">F19-F17</f>
+        <f t="shared" ref="F22:H22" si="6">F19-F17</f>
         <v>0.3199999999999994</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.32000000000000028</v>
       </c>
       <c r="L22" s="32">
@@ -5003,15 +5317,15 @@
         <v>0.65999999999999992</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:H28" si="3">F27-F26</f>
+        <f t="shared" ref="F28:H28" si="7">F27-F26</f>
         <v>0.66000000000000014</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.58999999999999986</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.84999999999999787</v>
       </c>
       <c r="K28">
@@ -5028,15 +5342,15 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:H29" si="4">F25-F26</f>
+        <f t="shared" ref="F29:H29" si="8">F25-F26</f>
         <v>0.48999999999999844</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.41999999999999993</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.62000000000000099</v>
       </c>
       <c r="M29" s="30">
@@ -5053,15 +5367,15 @@
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:H30" si="5">F27-F25</f>
+        <f t="shared" ref="F30:H30" si="9">F27-F25</f>
         <v>0.17000000000000171</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.22999999999999687</v>
       </c>
       <c r="L30" s="32">
@@ -5069,49 +5383,74 @@
         <v>0.16499999999999959</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
         <v>99</v>
       </c>
       <c r="I33">
         <v>8.14</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>23.91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>8.43</v>
+      </c>
+      <c r="J34">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35">
-        <v>8.43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>46</v>
       </c>
       <c r="I36">
-        <f>I33-I34</f>
+        <f>I33-I35</f>
         <v>0.16000000000000014</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f>J33-J35</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="M36" s="30">
+        <f>AVERAGE(I36:J36)</f>
+        <v>8.5000000000000853E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I37">
-        <f>I35-I33</f>
+        <f>I34-I33</f>
         <v>0.28999999999999915</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>J34-J33</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="L37" s="33">
+        <f>AVERAGE(I37:J37)</f>
+        <v>0.36500000000000021</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5119,7 +5458,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -5127,7 +5466,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>

--- a/NorthernTrust/NT-KostenBepaling.xlsx
+++ b/NorthernTrust/NT-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NorthernTrust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="641" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE636135-679C-43EA-9F20-4F41E36EB0C3}"/>
+  <xr:revisionPtr revIDLastSave="649" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02ADA5BA-925D-4B9B-BE79-52D2CA223DD1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="23070" yWindow="2805" windowWidth="21915" windowHeight="16035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aannames" sheetId="4" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <author>Gerben</author>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{434CD842-3C43-4334-B2E1-FAF0941512B8}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{434CD842-3C43-4334-B2E1-FAF0941512B8}">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{EE1FF351-82F3-401D-BF5F-E210234F658F}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{EE1FF351-82F3-401D-BF5F-E210234F658F}">
       <text>
         <r>
           <rPr>
@@ -920,10 +920,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -931,9 +930,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -951,24 +949,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -993,6 +986,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1258,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926ECACD-21DA-4904-B85E-A64A90D22818}">
-  <dimension ref="B2:B30"/>
+  <dimension ref="B2:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1273,116 +1270,101 @@
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-    </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1397,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1412,17 +1394,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,152 +1445,152 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>22294</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>1057177</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>526476</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="2"/>
       <c r="L5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>607319449</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>1151302913</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>1781058053</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>2673847808</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>2699037265</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>4671196104</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>C5/C6</f>
         <v>0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" ref="D7:H7" si="0">D5/D6</f>
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>8.3377969132340379E-6</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>3.9168670018344484E-4</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>1.1270689311227427E-4</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3"/>
       <c r="L7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f>'Northern Trust Master fondsen'!D6</f>
         <v>1.3528648432442348E-4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>'Northern Trust Master fondsen'!E6</f>
         <v>4.4782844092559127E-5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>'Northern Trust Master fondsen'!F6</f>
         <v>4.2300110328596436E-5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>'Northern Trust Master fondsen'!G6</f>
         <v>4.6130035609743487E-5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f>'Northern Trust Master fondsen'!H6</f>
         <v>6.2120793946397634E-5</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>'Northern Trust Master fondsen'!I6</f>
         <v>1.7136259660773064E-5</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>SUM(C7:C8)</f>
         <v>1.3528648432442348E-4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" ref="D9:H9" si="1">SUM(D7:D8)</f>
         <v>4.4782844092559127E-5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>4.2300110328596436E-5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>5.4467832522977523E-5</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>4.5380749412984249E-4</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>1.2984315277304734E-4</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6">
+      <c r="I9" s="4"/>
+      <c r="J9" s="5">
         <f>AVERAGE(C9:H9)</f>
         <v>1.434146530285744E-4</v>
       </c>
@@ -1617,29 +1599,29 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7">
+      <c r="I10" s="4"/>
+      <c r="J10" s="6">
         <f>AVERAGE(C10:H10)</f>
         <v>1.0499999999999999E-3</v>
       </c>
@@ -1648,79 +1630,78 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>159521</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <f>323257-D5</f>
         <v>323257</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f>2280765-E5</f>
         <v>2280765</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <f>3265001-F5</f>
         <v>3242707</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <f>3763438-G5</f>
         <v>2706261</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <f>4740622-H5</f>
         <v>4214146</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
       <c r="L12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" ref="C13:H13" si="2">C12/C6</f>
         <v>2.6266407285764366E-4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>2.8077493451108816E-4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="2"/>
         <v>1.2805674672750266E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="2"/>
         <v>1.212749278510918E-3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="2"/>
         <v>1.0026764117315734E-3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>9.0215565910225376E-4</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="7">
+      <c r="I13" s="4"/>
+      <c r="J13" s="6">
         <f>AVERAGE(C13:H13)</f>
         <v>8.2359797066475053E-4</v>
       </c>
@@ -1729,383 +1710,377 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="17">
+      <c r="C14" s="3"/>
+      <c r="D14" s="15">
         <f>D12+D5</f>
         <v>323257</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <f t="shared" ref="E14:H14" si="3">E12+E5</f>
         <v>2280765</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <f t="shared" si="3"/>
         <v>3265001</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <f t="shared" si="3"/>
         <v>3763438</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <f t="shared" si="3"/>
         <v>4740622</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
       <c r="L14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <f>D14/D6</f>
         <v>2.8077493451108816E-4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" ref="E15:H15" si="4">E14/E6</f>
         <v>1.2805674672750266E-3</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="4"/>
         <v>1.2210870754241522E-3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="4"/>
         <v>1.3943631119150183E-3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="4"/>
         <v>1.0148625522145281E-3</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6"/>
       <c r="L16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="24">
         <f>0.07</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="24">
         <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="24">
         <f>0.09</f>
         <v>0.09</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="24">
         <f>0.26</f>
         <v>0.26</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="24">
         <v>0.19</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="24">
         <v>0.08</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="44">
+      <c r="I17" s="4"/>
+      <c r="J17" s="37">
         <f>AVERAGE(E17:H17)</f>
         <v>0.155</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="24">
         <v>0.1464</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="24">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <v>0.1013</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="24">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="24">
         <v>3.32E-2</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="24">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="44">
+      <c r="I18" s="4"/>
+      <c r="J18" s="37">
         <f>AVERAGE(E18:H18)</f>
         <v>7.6575000000000004E-2</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="5">
+      <c r="C20" s="25"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6">
+      <c r="I20" s="4"/>
+      <c r="J20" s="5">
         <f>AVERAGE(F20:H20)</f>
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>J9+J13</f>
         <v>9.6701262369332491E-4</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>J9+0.15%</f>
         <v>1.6434146530285745E-3</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="L26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="6">
         <f>H10+H9</f>
         <v>1.6298431527730474E-3</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f>C27+H20</f>
         <v>1.9298431527730473E-3</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="7">
-        <f>('Tracking Difference'!L7/100)-C22</f>
-        <v>1.3163207096400071E-3</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="C29" s="6">
+        <f>('Tracking Difference'!M7/100)-C22</f>
+        <v>1.1615588048781039E-3</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="7">
-        <f>('Tracking Difference'!L7/100)-C23</f>
-        <v>6.3991868030475758E-4</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
+      <c r="C30" s="6">
+        <f>('Tracking Difference'!M7/100)-C23</f>
+        <v>4.8515677554285437E-4</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f>C30-H20</f>
-        <v>3.399186803047576E-4</v>
+        <v>1.851567755428544E-4</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f>AVERAGE(E10:H10)+AVERAGE(E9:H9)+AVERAGE(E20:H20)</f>
         <v>1.8951046474386158E-3</v>
       </c>
       <c r="D33" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f>AVERAGE('Tracking Difference'!G7:J7)/100</f>
         <v>2.4500000000000012E-3</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="39">
         <f>C34-C33</f>
         <v>5.5489535256138538E-4</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2133,23 +2108,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
@@ -2157,7 +2132,6 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>2016</v>
       </c>
@@ -2185,115 +2159,115 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>48346</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>276690</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>234574</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>672683</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1289282</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>1944889</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>72832569</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>280855994</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>798617793</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1521930963</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>2450916010</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>3883272002</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
       <c r="L6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>C5/C6</f>
         <v>6.6379643974936542E-4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" ref="D7:H7" si="0">D5/D6</f>
         <v>9.8516679690304203E-4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>2.9372498591450741E-4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>4.4199311030115364E-4</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>5.26040873999595E-4</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>5.008376953760449E-4</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7">
+      <c r="I7" s="4"/>
+      <c r="J7" s="6">
         <f>AVERAGE(C7:H7)</f>
         <v>5.6859331704061809E-4</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>2.8E-3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2E-3</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="7">
+      <c r="I8" s="2"/>
+      <c r="J8" s="6">
         <f>AVERAGE(C8:H8)</f>
         <v>2.4666666666666669E-3</v>
       </c>
@@ -2302,202 +2276,198 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f>252128-C5</f>
         <v>203782</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f>842623-D5</f>
         <v>565933</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f>2541872-E5</f>
         <v>2307298</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f>4524697-F5</f>
         <v>3852014</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f>6441892-G5</f>
         <v>5152610</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f>9439821-H5</f>
         <v>7494932</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="6"/>
       <c r="L10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>C10/C6</f>
         <v>2.7979515592811231E-3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>D10/D6</f>
         <v>2.0150290970824001E-3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" ref="E11:H11" si="1">E10/E6</f>
         <v>2.8891141923255395E-3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
         <v>2.5310044237532212E-3</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>2.1023201035762951E-3</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>1.9300558900174616E-3</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="7">
+      <c r="I11" s="2"/>
+      <c r="J11" s="6">
         <f>AVERAGE(C11:H11)</f>
         <v>2.3775792110060068E-3</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="7"/>
-      <c r="L12" s="43" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="6"/>
+      <c r="L12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="7"/>
-      <c r="L13" s="43" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="6"/>
+      <c r="L13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="24">
         <f>1.53</f>
         <v>1.53</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <f>1.09</f>
         <v>1.0900000000000001</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="24">
         <f>0.46</f>
         <v>0.46</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="24">
         <f>0.13</f>
         <v>0.13</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="24">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="24">
         <v>0.02</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="44">
+      <c r="I14" s="2"/>
+      <c r="J14" s="37">
         <f>AVERAGE(C14:H14)</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="43" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <v>0.1845</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="24">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="24">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="24">
         <v>0.2301</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="24">
         <v>1.7081</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="24">
         <v>0.2447</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="44">
+      <c r="I15" s="2"/>
+      <c r="J15" s="37">
         <f>AVERAGE(C15:H15)</f>
         <v>0.41114999999999996</v>
       </c>
-      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="5"/>
       <c r="L16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="6">
         <f>J7+J11</f>
         <v>2.946172528046625E-3</v>
       </c>
@@ -2506,103 +2476,92 @@
       <c r="B18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="25">
         <f>H8+H7</f>
         <v>3.0008376953760451E-3</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="29">
-        <f>('Tracking Difference'!L14/100)-C17</f>
+      <c r="C20" s="6">
+        <f>('Tracking Difference'!M14/100)-C17</f>
         <v>7.0382747195337761E-4</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="45"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="28"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="C25" s="25"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="27"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2630,17 +2589,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2675,236 +2634,227 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>2131</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>139778</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>203240</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>134685073</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>209928765</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>536989210</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
         <f>F5/F6</f>
         <v>1.582209485085255E-5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>G5/G6</f>
         <v>6.6583538468394262E-4</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f>H5/H6</f>
         <v>3.7848060299014202E-4</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <f>'Northern Trust Master fondsen'!G22</f>
         <v>8.9319673455790307E-4</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f>'Northern Trust Master fondsen'!H22</f>
         <v>3.2934847239067549E-4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f>'Northern Trust Master fondsen'!I22</f>
         <v>1.5612069852104837E-4</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <f>SUM(F7:F8)</f>
         <v>9.0901882940875559E-4</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>SUM(G7:G8)</f>
         <v>9.9518385707461805E-4</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f>SUM(H7:H8)</f>
         <v>5.3460130151119036E-4</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="29">
+      <c r="I9" s="4"/>
+      <c r="J9" s="6">
         <f>AVERAGE(G9:H9)</f>
         <v>7.6489257929290421E-4</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="7">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6">
         <v>2.3E-3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>2.3E-3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="6">
         <f>AVERAGE(G10:H10)</f>
         <v>2.2500000000000003E-3</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <f>108396-F5</f>
         <v>106265</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f>404158-G5</f>
         <v>264380</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f>1012274-H5</f>
         <v>809034</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3">
         <f>F12/F6</f>
         <v>7.889886951317909E-4</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f>G12/G6</f>
         <v>1.2593795804972225E-3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f>H12/H6</f>
         <v>1.5066112780925337E-3</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="6">
         <f>AVERAGE(G13:H13)</f>
         <v>1.382995429294878E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="37">
         <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="37">
         <v>0.17</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="37">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-    </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="6">
         <f>J9+J10</f>
         <v>3.0148925792929044E-3</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2912,11 +2862,11 @@
       <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="6">
         <f>H9+H10</f>
         <v>2.7346013015111907E-3</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f>C22+H17</f>
         <v>3.0346013015111906E-3</v>
       </c>
@@ -2925,16 +2875,16 @@
       <c r="B24" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="29">
-        <f>('Tracking Difference'!L30/100)-C19</f>
+      <c r="C24" s="6">
+        <f>('Tracking Difference'!M30/100)-C19</f>
         <v>-1.3648925792929085E-3</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="42"/>
+      <c r="B37" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2960,15 +2910,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
@@ -3000,371 +2950,366 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>244</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>200</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>151</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="J5" s="2" t="s">
+      <c r="G5" s="2"/>
+      <c r="J5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>35377446</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>337614438</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>620074712</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>1000756145</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>C5/C6</f>
         <v>6.8970496061247611E-6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" ref="D7:F7" si="0">D5/D6</f>
         <v>5.9239172703864047E-7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>1.5088590837481192E-7</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f>'Northern Trust Master fondsen'!D54</f>
         <v>1.4240200701548999E-4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>'Northern Trust Master fondsen'!E54</f>
         <v>1.8879294676940906E-4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>'Northern Trust Master fondsen'!F54</f>
         <v>5.4497376783190948E-5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>'Northern Trust Master fondsen'!G54</f>
         <v>4.2326604352244424E-5</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>SUM(C7:C8)</f>
         <v>1.4929905662161474E-4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" ref="D9:F9" si="1">SUM(D7:D8)</f>
         <v>1.893853384964477E-4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>5.4497376783190948E-5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>4.2477490260619238E-5</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7">
+      <c r="G9" s="4"/>
+      <c r="H9" s="6">
         <f>AVERAGE(C9:G9)</f>
         <v>1.0891481554046815E-4</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7">
+      <c r="G10" s="4"/>
+      <c r="H10" s="6">
         <f t="shared" ref="H10" si="2">AVERAGE(C10:F10)</f>
         <v>1.075E-3</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <f>49806-C5</f>
         <v>49562</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <f>101119-D5</f>
         <v>100919</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f>724855-E5</f>
         <v>724855</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <f>1049269-F5</f>
         <v>1049118</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>C12/C6</f>
         <v>1.4009490679457188E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" ref="D13:F13" si="3">D12/D6</f>
         <v>2.9891790350506276E-4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="3"/>
         <v>1.1689801018687567E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="3"/>
         <v>1.0483253140554036E-3</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7">
+      <c r="G13" s="4"/>
+      <c r="H13" s="6">
         <f>AVERAGE(C13:F13)</f>
         <v>9.7929309684373551E-4</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="24">
         <f>0.03</f>
         <v>0.03</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="24">
         <f>0.13</f>
         <v>0.13</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="24">
         <f>0.09</f>
         <v>0.09</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="24">
         <f>0.18</f>
         <v>0.18</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>H9+H13</f>
         <v>1.0882079123842037E-3</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="4">
-        <f>'Tracking Difference'!L22/100</f>
+      <c r="C18" s="3">
+        <f>'Tracking Difference'!M22/100</f>
         <v>3.274999999999998E-3</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>C18-C17</f>
         <v>2.1867920876157943E-3</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="25">
         <f>0.15%+AVERAGE(E9:F9)</f>
         <v>1.5484874335219051E-3</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="25">
         <f>C21-C17</f>
         <v>4.6027952113770142E-4</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="25">
         <f>C23+C18</f>
         <v>3.7352795211376992E-3</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3389,15 +3334,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
@@ -3429,418 +3374,412 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>739</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>1729</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>331</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
       <c r="J5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>116633513</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>256166911</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>421319041</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>609141396</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>C5/C6</f>
         <v>6.3360862670748841E-6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" ref="D7:F7" si="0">D5/D6</f>
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>4.1037784475541898E-6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>5.4338779497428868E-7</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3"/>
+      <c r="J7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>'Northern Trust Master fondsen'!D41</f>
         <v>4.0880326741039955E-4</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>'Northern Trust Master fondsen'!E41</f>
         <v>3.2333263888189987E-4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>'Northern Trust Master fondsen'!F41</f>
         <v>1.4029800153593462E-4</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>'Northern Trust Master fondsen'!G41</f>
         <v>1.0903789686451616E-4</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>SUM(C7:C8)</f>
         <v>4.1513935367747443E-4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" ref="D9:F9" si="1">SUM(D7:D8)</f>
         <v>3.2333263888189987E-4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>1.444017799834888E-4</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>1.0958128465949044E-4</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7">
+      <c r="G9" s="4"/>
+      <c r="H9" s="6">
         <f>AVERAGE(C9:G9)</f>
         <v>2.4811376430058837E-4</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7">
+      <c r="G10" s="4"/>
+      <c r="H10" s="6">
         <f t="shared" ref="H10" si="2">AVERAGE(C10:F10)</f>
         <v>9.2500000000000004E-4</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <f>73959-C5</f>
         <v>73220</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <f>102247-D5</f>
         <v>102247</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f>593572-E5</f>
         <v>591843</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <f>737120-F5</f>
         <v>736789</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>C12/C6</f>
         <v>6.2777839847797431E-4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" ref="D13:F13" si="3">D12/D6</f>
         <v>3.9914210465691254E-4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="3"/>
         <v>1.4047383156366769E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="3"/>
         <v>1.2095533234782816E-3</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7">
+      <c r="G13" s="4"/>
+      <c r="H13" s="6">
         <f>AVERAGE(C13:F13)</f>
         <v>9.1030303556246129E-4</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="24">
         <f>0.03</f>
         <v>0.03</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="24">
         <f>0.02</f>
         <v>0.02</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="24">
         <f>0.04</f>
         <v>0.04</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="24">
         <f>0.09</f>
         <v>0.09</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>H9+H13</f>
         <v>1.1584167998630497E-3</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="4">
-        <f>'Tracking Difference'!L30/100</f>
+      <c r="C18" s="3">
+        <f>'Tracking Difference'!M30/100</f>
         <v>1.6499999999999959E-3</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>C18-C17</f>
         <v>4.9158320013694616E-4</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="25">
         <f>0.15%+AVERAGE(E9:F9)</f>
         <v>1.6269915323214896E-3</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="25">
         <f>C21-C17</f>
         <v>4.6857473245843985E-4</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="25">
         <f>C23+C18</f>
         <v>2.1185747324584357E-3</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="41"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3865,17 +3804,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="K2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3907,22 +3846,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>200474</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>116789</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>159626</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>261252</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>477059</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>168260</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -3933,29 +3872,29 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>957946194</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>2005749714</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>3210042287</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>4337266633</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <f>6989496789</f>
         <v>6989496789</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>8369579285</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>11268311752</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3963,76 +3902,76 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5">
+      <c r="C6" s="7"/>
+      <c r="D6" s="4">
         <f t="shared" ref="D6:F6" si="0">D4/AVERAGE(C5:D5)</f>
         <v>1.3528648432442348E-4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>4.4782844092559127E-5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>4.2300110328596436E-5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>G4/AVERAGE(F5:G5)</f>
         <v>4.6130035609743487E-5</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>H4/AVERAGE(G5:H5)</f>
         <v>6.2120793946397634E-5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>I4/AVERAGE(H5:I5)</f>
         <v>1.7136259660773064E-5</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="K7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4">
+      <c r="C8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3">
         <f>2849261/AVERAGE(F5:G5)</f>
         <v>5.0310241219762278E-4</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f>3430662/AVERAGE(F5:G5)</f>
         <v>6.0576210029011761E-4</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="K9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="K10" s="9" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="K10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4040,43 +3979,43 @@
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="32">
         <v>9156794</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="32">
         <v>35680887</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="32">
         <v>59639049</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="32">
         <v>98224310</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="32">
         <v>140316975</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="32">
         <v>723455</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="32">
         <v>3677107</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="32">
         <v>6076660</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="32">
         <v>10961948</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="32">
         <v>14258476</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4084,84 +4023,84 @@
       <c r="B13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="23">
         <f t="shared" ref="C13:F13" si="1">C12/C11</f>
         <v>7.9007456103085863E-2</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <f t="shared" si="1"/>
         <v>0.10305536967172368</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <f t="shared" si="1"/>
         <v>0.10189062538539137</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="23">
         <f t="shared" si="1"/>
         <v>0.11160117083031686</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="23">
         <f>G12/G11</f>
         <v>0.10161618720757057</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1E-4</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>1E-4</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="K18" s="1" t="s">
         <v>25</v>
       </c>
@@ -4191,90 +4130,83 @@
       <c r="K19" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
         <v>63179</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="2">
         <v>78222</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="2">
         <v>88354</v>
       </c>
       <c r="K20" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="2">
         <v>141467154</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="2">
         <v>333543399</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="2">
         <v>798324455</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31">
         <f>G20/AVERAGE(F21:G21)</f>
         <v>8.9319673455790307E-4</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="31">
         <f>H20/AVERAGE(G21:H21)</f>
         <v>3.2934847239067549E-4</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="31">
         <f>I20/AVERAGE(H21:I21)</f>
         <v>1.5612069852104837E-4</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33">
         <v>1485197</v>
       </c>
     </row>
@@ -4282,87 +4214,83 @@
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33">
         <v>195155</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30">
         <f>G25/G24</f>
         <v>0.13140007689215638</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>1E-4</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -4387,45 +4315,45 @@
         <v>2020</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="L38" s="7"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
         <v>45547</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="2">
         <v>119882</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="2">
         <v>97972</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="2">
         <v>119750</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="7"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="2">
         <v>25275750</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="2">
         <v>197555150</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="2">
         <v>543984587</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="2">
         <v>852642577</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="2">
         <v>1343841461</v>
       </c>
     </row>
@@ -4433,49 +4361,49 @@
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="5">
+      <c r="C41" s="7"/>
+      <c r="D41" s="4">
         <f t="shared" ref="D41" si="2">D39/AVERAGE(C40:D40)</f>
         <v>4.0880326741039955E-4</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <f t="shared" ref="E41" si="3">E39/AVERAGE(D40:E40)</f>
         <v>3.2333263888189987E-4</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <f t="shared" ref="F41" si="4">F39/AVERAGE(E40:F40)</f>
         <v>1.4029800153593462E-4</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <f>G39/AVERAGE(F40:G40)</f>
         <v>1.0903789686451616E-4</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="32">
         <v>4178257</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="32">
         <v>4523050</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="32">
         <v>11531574</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="32">
         <v>25060715</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="32">
         <v>36414801</v>
       </c>
     </row>
@@ -4483,19 +4411,19 @@
       <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="32">
         <v>460172</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="32">
         <v>328239</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="32">
         <v>769172</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="32">
         <v>1404308</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="32">
         <v>1974860</v>
       </c>
     </row>
@@ -4503,74 +4431,74 @@
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="23">
         <f t="shared" ref="C45:F45" si="5">C44/C43</f>
         <v>0.11013491989602363</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="23">
         <f t="shared" si="5"/>
         <v>7.2570278904721369E-2</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="23">
         <f t="shared" si="5"/>
         <v>6.6701388726291833E-2</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="23">
         <f t="shared" si="5"/>
         <v>5.603623041082427E-2</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="23">
         <f>G44/G43</f>
         <v>5.4232343601163711E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>1E-4</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
@@ -4600,17 +4528,17 @@
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
         <v>10837</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="2">
         <v>77254</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="2">
         <v>45684</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="2">
         <v>55573</v>
       </c>
     </row>
@@ -4618,19 +4546,19 @@
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="2">
         <v>82931512</v>
       </c>
-      <c r="D53" s="34">
+      <c r="D53" s="2">
         <v>69271399</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="2">
         <v>749127819</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="2">
         <v>927429942</v>
       </c>
-      <c r="G53" s="34">
+      <c r="G53" s="2">
         <v>1698483516</v>
       </c>
     </row>
@@ -4638,20 +4566,20 @@
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="5">
+      <c r="C54" s="7"/>
+      <c r="D54" s="4">
         <f t="shared" ref="D54" si="6">D52/AVERAGE(C53:D53)</f>
         <v>1.4240200701548999E-4</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <f t="shared" ref="E54" si="7">E52/AVERAGE(D53:E53)</f>
         <v>1.8879294676940906E-4</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <f t="shared" ref="F54" si="8">F52/AVERAGE(E53:F53)</f>
         <v>5.4497376783190948E-5</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <f>G52/AVERAGE(F53:G53)</f>
         <v>4.2326604352244424E-5</v>
       </c>
@@ -4660,19 +4588,19 @@
       <c r="B56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56" s="32">
         <v>13588</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="32">
         <v>812657</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="32">
         <v>9763753</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="32">
         <v>18127165</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56" s="32">
         <v>28988001</v>
       </c>
     </row>
@@ -4680,19 +4608,19 @@
       <c r="B57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="32">
         <v>1921</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="32">
         <v>121637</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="32">
         <v>1181144</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="32">
         <v>2300880</v>
       </c>
-      <c r="G57" s="38">
+      <c r="G57" s="32">
         <v>3641394</v>
       </c>
     </row>
@@ -4700,23 +4628,23 @@
       <c r="B58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="25">
+      <c r="C58" s="23">
         <f t="shared" ref="C58:F58" si="9">C57/C56</f>
         <v>0.14137474241978215</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="23">
         <f t="shared" si="9"/>
         <v>0.1496781544981462</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="23">
         <f t="shared" si="9"/>
         <v>0.12097233512564277</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="23">
         <f t="shared" si="9"/>
         <v>0.12692994188556236</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="23">
         <f>G57/G56</f>
         <v>0.1256172855796438</v>
       </c>
@@ -4725,24 +4653,24 @@
       <c r="B60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>0</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>0</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>0</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>1E-4</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E64" s="4"/>
+      <c r="E64" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4753,10 +4681,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528616F-4365-4E03-AA99-F5C2282C78C2}">
-  <dimension ref="B2:P63"/>
+  <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="G7:J7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4764,375 +4692,400 @@
     <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17">
         <v>2014</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <v>2015</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <v>2016</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <v>2017</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="17">
         <v>2018</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <v>2019</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="17">
         <v>2020</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="17">
         <v>2021</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="17">
+        <v>2022</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19">
         <v>10.55</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <v>8.32</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>-3.3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <v>30.93</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>8.2200000000000006</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="19">
         <v>31.74</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="21"/>
-      <c r="P3" s="9" t="s">
+      <c r="K3" s="19">
+        <v>-13.71</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="19"/>
+      <c r="Q3" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>20.76</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>11.13</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>10.72</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>8.5399999999999991</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>-3.12</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>31.17</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>8.5299999999999994</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="19">
         <v>31.99</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="P4" s="9" t="s">
+      <c r="K4" s="19">
+        <v>-13.59</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="Q4" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
         <v>10.07</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>7.95</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <v>-3.65</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>30.44</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>7.98</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>31.42</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="K5" s="19">
+        <v>-14.01</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21">
-        <f t="shared" ref="E6:J6" si="0">E3-E5</f>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
+        <f t="shared" ref="E6:K6" si="0">E3-E5</f>
         <v>0.48000000000000043</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>0.37000000000000011</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <f t="shared" si="0"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <f t="shared" si="0"/>
         <v>0.48999999999999844</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <f t="shared" si="0"/>
         <v>0.24000000000000021</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <f t="shared" si="0"/>
         <v>0.31999999999999673</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="21">
+      <c r="K6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="19">
         <f>AVERAGE(E6:J6)</f>
         <v>0.37499999999999933</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21">
-        <f t="shared" ref="E7:J7" si="1">E4-E3</f>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <f t="shared" ref="E7:K7" si="1">E4-E3</f>
         <v>0.16999999999999993</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
         <v>0.21999999999999886</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <f t="shared" si="1"/>
         <v>0.17999999999999972</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <f t="shared" si="1"/>
         <v>0.24000000000000199</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>0.30999999999999872</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="33">
-        <f>AVERAGE(E7:J7)</f>
-        <v>0.22833333333333319</v>
-      </c>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="K7" s="19">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="29">
+        <f>AVERAGE(E7:K7)</f>
+        <v>0.21285714285714288</v>
+      </c>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22">
         <v>12.94</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>21.63</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>-10.75</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>20.82</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>10.26</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <v>3.81</v>
       </c>
-      <c r="K10" s="24"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="M10" s="20"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>12.03</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>-3.64</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>13.57</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>21.71</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <v>-10.25</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <v>21.08</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>10.72</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="22">
         <v>4.07</v>
       </c>
-      <c r="K11" s="24"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="24"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
         <v>13.14</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>21.3</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <v>-10.6</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>20.61</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="22">
         <v>10.37</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>3.74</v>
       </c>
-      <c r="K12" s="24"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="22"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
         <f t="shared" ref="E13:J13" si="2">E10-E12</f>
         <v>-0.20000000000000107</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <f t="shared" si="2"/>
         <v>0.32999999999999829</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <f t="shared" si="2"/>
         <v>-0.15000000000000036</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="22">
         <f t="shared" si="2"/>
         <v>0.21000000000000085</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <f t="shared" si="2"/>
         <v>-0.10999999999999943</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="22">
         <f t="shared" si="2"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24">
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22">
         <f>AVERAGE(E13:J13)</f>
         <v>2.4999999999999689E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
         <f t="shared" ref="E14:J14" si="3">E11-E10</f>
         <v>0.63000000000000078</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <f t="shared" si="3"/>
         <v>8.0000000000001847E-2</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>0.25999999999999801</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <f t="shared" si="3"/>
         <v>0.46000000000000085</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <f t="shared" si="3"/>
         <v>0.26000000000000023</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="31">
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="27">
         <f>AVERAGE(E14:J14)</f>
         <v>0.36500000000000027</v>
       </c>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="N14" s="22"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E17">
@@ -5148,8 +5101,8 @@
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E18">
@@ -5165,8 +5118,8 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E19">
@@ -5182,8 +5135,8 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E20">
@@ -5202,13 +5155,13 @@
         <f t="shared" si="4"/>
         <v>0.77999999999999403</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f>AVERAGE(E20:H20)</f>
         <v>0.66999999999999826</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E21">
@@ -5227,13 +5180,13 @@
         <f t="shared" si="5"/>
         <v>0.45999999999999375</v>
       </c>
-      <c r="M21" s="30">
+      <c r="N21" s="26">
         <f>AVERAGE(E21:H21)</f>
         <v>0.34249999999999847</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E22">
@@ -5252,13 +5205,13 @@
         <f t="shared" si="6"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="L22" s="32">
+      <c r="M22" s="28">
         <f>AVERAGE(E22:H22)</f>
         <v>0.32749999999999979</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E25">
@@ -5274,8 +5227,8 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
         <v>63</v>
       </c>
       <c r="E26">
@@ -5291,8 +5244,8 @@
         <v>26.14</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E27">
@@ -5308,8 +5261,8 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E28">
@@ -5328,13 +5281,13 @@
         <f t="shared" si="7"/>
         <v>0.84999999999999787</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f>AVERAGE(E28:H28)</f>
         <v>0.6899999999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E29">
@@ -5353,13 +5306,13 @@
         <f t="shared" si="8"/>
         <v>0.62000000000000099</v>
       </c>
-      <c r="M29" s="30">
+      <c r="N29" s="26">
         <f>AVERAGE(E29:H29)</f>
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E30">
@@ -5378,13 +5331,13 @@
         <f t="shared" si="9"/>
         <v>0.22999999999999687</v>
       </c>
-      <c r="L30" s="32">
+      <c r="M30" s="28">
         <f>AVERAGE(E30:H30)</f>
         <v>0.16499999999999959</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
         <v>99</v>
       </c>
       <c r="I33">
@@ -5394,8 +5347,8 @@
         <v>23.91</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
         <v>100</v>
       </c>
       <c r="I34">
@@ -5405,8 +5358,8 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
         <v>101</v>
       </c>
       <c r="I35">
@@ -5416,8 +5369,8 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
         <v>46</v>
       </c>
       <c r="I36">
@@ -5428,13 +5381,13 @@
         <f>J33-J35</f>
         <v>1.0000000000001563E-2</v>
       </c>
-      <c r="M36" s="30">
+      <c r="N36" s="26">
         <f>AVERAGE(I36:J36)</f>
         <v>8.5000000000000853E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
         <v>45</v>
       </c>
       <c r="I37">
@@ -5445,12 +5398,12 @@
         <f>J34-J33</f>
         <v>0.44000000000000128</v>
       </c>
-      <c r="L37" s="33">
+      <c r="M37" s="29">
         <f>AVERAGE(I37:J37)</f>
         <v>0.36500000000000021</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5458,36 +5411,36 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5495,22 +5448,22 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5523,15 +5476,16 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="N62" s="30"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="26"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
     </row>
   </sheetData>

--- a/NorthernTrust/NT-KostenBepaling.xlsx
+++ b/NorthernTrust/NT-KostenBepaling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NorthernTrust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="649" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02ADA5BA-925D-4B9B-BE79-52D2CA223DD1}"/>
+  <xr:revisionPtr revIDLastSave="665" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA32533-BFF5-436B-A103-9FAD9F748A0D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="121">
   <si>
     <t>Transaction costs and interest expenses are excluded from the calculation.</t>
   </si>
@@ -783,19 +783,13 @@
     <t>De master fondsen lekken gewoon, de Nederlandse feeders maken dat goed. Dit zijn fiscaal transparante fondsen dus. (CCF)</t>
   </si>
   <si>
-    <t>Kosten gemiddeld verleden 0,15%</t>
-  </si>
-  <si>
-    <t>TD ruimte 0,15% vast</t>
-  </si>
-  <si>
-    <t>TD ruimte 0,15% vast + master</t>
-  </si>
-  <si>
-    <t>ok… zal het dan zo zitten?</t>
-  </si>
-  <si>
-    <t>2018-2021</t>
+    <t>zonder master</t>
+  </si>
+  <si>
+    <t>met master</t>
+  </si>
+  <si>
+    <t>gek, een gat?</t>
   </si>
 </sst>
 </file>
@@ -1377,11 +1371,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L38"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1890,6 +1882,9 @@
         <f>J9+J13</f>
         <v>9.6701262369332491E-4</v>
       </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1899,11 +1894,14 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C23" s="6">
-        <f>J9+0.15%</f>
-        <v>1.6434146530285745E-3</v>
+        <f>('Tracking Difference'!M7/100)-C22</f>
+        <v>1.3163207096400071E-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1913,6 +1911,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1921,7 +1920,16 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="6">
+        <f>J9+J13+J20</f>
+        <v>1.2670126236933249E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1930,11 +1938,15 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>108</v>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="6">
+        <f>('Tracking Difference'!M7/100)-C25</f>
+        <v>1.0163207096400072E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1942,20 +1954,13 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
-      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="6">
-        <f>H10+H9</f>
-        <v>1.6298431527730474E-3</v>
-      </c>
-      <c r="D27" s="3">
-        <f>C27+H20</f>
-        <v>1.9298431527730473E-3</v>
-      </c>
+      <c r="C27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
     </row>
@@ -1968,13 +1973,7 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="6">
-        <f>('Tracking Difference'!M7/100)-C22</f>
-        <v>1.1615588048781039E-3</v>
-      </c>
+      <c r="C29" s="6"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1983,12 +1982,11 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="6">
-        <f>('Tracking Difference'!M7/100)-C23</f>
-        <v>4.8515677554285437E-4</v>
+      <c r="C30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1996,91 +1994,100 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>120</v>
+      <c r="B31" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C31" s="6">
-        <f>C30-H20</f>
-        <v>1.851567755428544E-4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+        <f>H10+H9</f>
+        <v>1.6298431527730474E-3</v>
+      </c>
+      <c r="D31" s="3">
+        <f>C31+H20</f>
+        <v>1.9298431527730473E-3</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="6">
-        <f>AVERAGE(E10:H10)+AVERAGE(E9:H9)+AVERAGE(E20:H20)</f>
-        <v>1.8951046474386158E-3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="3">
-        <f>AVERAGE('Tracking Difference'!G7:J7)/100</f>
-        <v>2.4500000000000012E-3</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="39">
-        <f>C34-C33</f>
-        <v>5.5489535256138538E-4</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="6"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="24"/>
-      <c r="D38" s="6"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="6"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="24"/>
+      <c r="D42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4683,9 +4690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528616F-4365-4E03-AA99-F5C2282C78C2}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4865,10 +4870,7 @@
         <f t="shared" si="0"/>
         <v>0.31999999999999673</v>
       </c>
-      <c r="K6" s="19">
-        <f t="shared" si="0"/>
-        <v>0.29999999999999893</v>
-      </c>
+      <c r="K6" s="19"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="19">
@@ -4906,14 +4908,11 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="K7" s="19">
-        <f t="shared" si="1"/>
-        <v>0.12000000000000099</v>
-      </c>
+      <c r="K7" s="19"/>
       <c r="L7" s="16"/>
       <c r="M7" s="29">
         <f>AVERAGE(E7:K7)</f>
-        <v>0.21285714285714288</v>
+        <v>0.22833333333333319</v>
       </c>
       <c r="N7" s="19"/>
     </row>

--- a/NorthernTrust/NT-KostenBepaling.xlsx
+++ b/NorthernTrust/NT-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NorthernTrust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="665" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA32533-BFF5-436B-A103-9FAD9F748A0D}"/>
+  <xr:revisionPtr revIDLastSave="674" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86629BA9-EB7D-441A-9D43-6924F1975B4B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aannames" sheetId="4" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <author>Gerben</author>
   </authors>
   <commentList>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{434CD842-3C43-4334-B2E1-FAF0941512B8}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{434CD842-3C43-4334-B2E1-FAF0941512B8}">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{EE1FF351-82F3-401D-BF5F-E210234F658F}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{EE1FF351-82F3-401D-BF5F-E210234F658F}">
       <text>
         <r>
           <rPr>
@@ -964,10 +964,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Komma" xfId="3" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,10 +980,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1897,8 +1893,8 @@
         <v>114</v>
       </c>
       <c r="C23" s="6">
-        <f>('Tracking Difference'!M7/100)-C22</f>
-        <v>1.3163207096400071E-3</v>
+        <f>('Tracking Difference'!N7/100)-C22</f>
+        <v>1.3329873763066728E-3</v>
       </c>
       <c r="D23" t="s">
         <v>120</v>
@@ -1942,8 +1938,8 @@
         <v>114</v>
       </c>
       <c r="C26" s="6">
-        <f>('Tracking Difference'!M7/100)-C25</f>
-        <v>1.0163207096400072E-3</v>
+        <f>('Tracking Difference'!N7/100)-C25</f>
+        <v>1.0329873763066729E-3</v>
       </c>
       <c r="D26" t="s">
         <v>120</v>
@@ -2497,7 +2493,7 @@
         <v>114</v>
       </c>
       <c r="C20" s="6">
-        <f>('Tracking Difference'!M14/100)-C17</f>
+        <f>('Tracking Difference'!N14/100)-C17</f>
         <v>7.0382747195337761E-4</v>
       </c>
     </row>
@@ -2883,7 +2879,7 @@
         <v>114</v>
       </c>
       <c r="C24" s="6">
-        <f>('Tracking Difference'!M30/100)-C19</f>
+        <f>('Tracking Difference'!N30/100)-C19</f>
         <v>-1.3648925792929085E-3</v>
       </c>
     </row>
@@ -3206,7 +3202,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="3">
-        <f>'Tracking Difference'!M22/100</f>
+        <f>'Tracking Difference'!N22/100</f>
         <v>3.274999999999998E-3</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -3634,7 +3630,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="3">
-        <f>'Tracking Difference'!M30/100</f>
+        <f>'Tracking Difference'!N30/100</f>
         <v>1.6499999999999959E-3</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -4688,16 +4684,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528616F-4365-4E03-AA99-F5C2282C78C2}">
-  <dimension ref="B2:Q63"/>
+  <dimension ref="B2:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="16"/>
       <c r="C2" s="17">
         <v>2014</v>
@@ -4726,18 +4724,21 @@
       <c r="K2" s="17">
         <v>2022</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="17">
+        <v>2023</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>61</v>
       </c>
@@ -4764,14 +4765,17 @@
       <c r="K3" s="19">
         <v>-13.71</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="19">
+        <v>20.51</v>
+      </c>
       <c r="M3" s="16"/>
-      <c r="N3" s="19"/>
-      <c r="Q3" s="8" t="s">
+      <c r="N3" s="16"/>
+      <c r="O3" s="19"/>
+      <c r="R3" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>43</v>
       </c>
@@ -4802,14 +4806,17 @@
       <c r="K4" s="19">
         <v>-13.59</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="19">
+        <v>20.86</v>
+      </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
-      <c r="Q4" s="8" t="s">
+      <c r="O4" s="16"/>
+      <c r="R4" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>44</v>
       </c>
@@ -4836,18 +4843,21 @@
       <c r="K5" s="19">
         <v>-14.01</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="19">
+        <v>20.260000000000002</v>
+      </c>
       <c r="M5" s="16"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N5" s="16"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19">
-        <f t="shared" ref="E6:K6" si="0">E3-E5</f>
+        <f t="shared" ref="E6:L6" si="0">E3-E5</f>
         <v>0.48000000000000043</v>
       </c>
       <c r="F6" s="19">
@@ -4870,22 +4880,29 @@
         <f t="shared" si="0"/>
         <v>0.31999999999999673</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="16"/>
+      <c r="K6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="M6" s="16"/>
-      <c r="N6" s="19">
-        <f>AVERAGE(E6:J6)</f>
-        <v>0.37499999999999933</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="16"/>
+      <c r="O6" s="19">
+        <f>AVERAGE(E6:L6)</f>
+        <v>0.34999999999999937</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
-        <f t="shared" ref="E7:K7" si="1">E4-E3</f>
+        <f t="shared" ref="E7:L7" si="1">E4-E3</f>
         <v>0.16999999999999993</v>
       </c>
       <c r="F7" s="19">
@@ -4908,15 +4925,22 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="29">
-        <f>AVERAGE(E7:K7)</f>
-        <v>0.22833333333333319</v>
-      </c>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K7" s="19">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="1"/>
+        <v>0.34999999999999787</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="29">
+        <f>AVERAGE(E7:L7)</f>
+        <v>0.22999999999999976</v>
+      </c>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>60</v>
       </c>
@@ -4942,10 +4966,11 @@
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M10" s="22"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="22"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>43</v>
       </c>
@@ -4975,10 +5000,11 @@
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>44</v>
       </c>
@@ -5004,10 +5030,11 @@
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="22"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>46</v>
       </c>
@@ -5040,12 +5067,13 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="22">
+      <c r="N13" s="22"/>
+      <c r="O13" s="22">
         <f>AVERAGE(E13:J13)</f>
         <v>2.4999999999999689E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>45</v>
       </c>
@@ -5077,13 +5105,14 @@
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
-      <c r="M14" s="27">
+      <c r="M14" s="22"/>
+      <c r="N14" s="27">
         <f>AVERAGE(E14:J14)</f>
         <v>0.36500000000000027</v>
       </c>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="22"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>59</v>
       </c>
@@ -5100,7 +5129,7 @@
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>56</v>
       </c>
@@ -5117,7 +5146,7 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
@@ -5134,7 +5163,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>76</v>
       </c>
@@ -5154,12 +5183,12 @@
         <f t="shared" si="4"/>
         <v>0.77999999999999403</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f>AVERAGE(E20:H20)</f>
         <v>0.66999999999999826</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
         <v>46</v>
       </c>
@@ -5179,12 +5208,12 @@
         <f t="shared" si="5"/>
         <v>0.45999999999999375</v>
       </c>
-      <c r="N21" s="26">
+      <c r="O21" s="26">
         <f>AVERAGE(E21:H21)</f>
         <v>0.34249999999999847</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -5204,12 +5233,12 @@
         <f t="shared" si="6"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="M22" s="28">
+      <c r="N22" s="28">
         <f>AVERAGE(E22:H22)</f>
         <v>0.32749999999999979</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>62</v>
       </c>
@@ -5226,7 +5255,7 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>63</v>
       </c>
@@ -5243,7 +5272,7 @@
         <v>26.14</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>64</v>
       </c>
@@ -5260,7 +5289,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
         <v>76</v>
       </c>
@@ -5280,12 +5309,12 @@
         <f t="shared" si="7"/>
         <v>0.84999999999999787</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f>AVERAGE(E28:H28)</f>
         <v>0.6899999999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
         <v>46</v>
       </c>
@@ -5305,12 +5334,12 @@
         <f t="shared" si="8"/>
         <v>0.62000000000000099</v>
       </c>
-      <c r="N29" s="26">
+      <c r="O29" s="26">
         <f>AVERAGE(E29:H29)</f>
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>45</v>
       </c>
@@ -5330,12 +5359,12 @@
         <f t="shared" si="9"/>
         <v>0.22999999999999687</v>
       </c>
-      <c r="M30" s="28">
+      <c r="N30" s="28">
         <f>AVERAGE(E30:H30)</f>
         <v>0.16499999999999959</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
         <v>99</v>
       </c>
@@ -5346,7 +5375,7 @@
         <v>23.91</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
         <v>100</v>
       </c>
@@ -5357,7 +5386,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
         <v>101</v>
       </c>
@@ -5368,7 +5397,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
         <v>46</v>
       </c>
@@ -5380,12 +5409,12 @@
         <f>J33-J35</f>
         <v>1.0000000000001563E-2</v>
       </c>
-      <c r="N36" s="26">
+      <c r="O36" s="26">
         <f>AVERAGE(I36:J36)</f>
         <v>8.5000000000000853E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>45</v>
       </c>
@@ -5397,12 +5426,12 @@
         <f>J34-J33</f>
         <v>0.44000000000000128</v>
       </c>
-      <c r="M37" s="29">
+      <c r="N37" s="29">
         <f>AVERAGE(I37:J37)</f>
         <v>0.36500000000000021</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5410,7 +5439,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -5418,12 +5447,12 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -5431,7 +5460,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -5439,7 +5468,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5447,7 +5476,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -5455,14 +5484,14 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5476,15 +5505,16 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="O62" s="26"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P62" s="26"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
     </row>
   </sheetData>
